--- a/data/06_colima/test.xlsx
+++ b/data/06_colima/test.xlsx
@@ -478,141 +478,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0600100010081</t>
+          <t>060020001134A</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.546</v>
+        <v>0.314</v>
       </c>
       <c r="C2" t="n">
-        <v>0.017</v>
+        <v>0.002</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="E2" t="n">
-        <v>13.623</v>
+        <v>1.746</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>4960.714</v>
+        <v>14525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>060010001019A</t>
+          <t>0600200011640</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.144</v>
+        <v>1.341</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E3" t="n">
-        <v>6.112</v>
+        <v>7.51</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5926.667</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0600100010359</t>
+          <t>0600200011316</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.424</v>
+        <v>8.031000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003</v>
+        <v>0.056</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001</v>
+        <v>0.024</v>
       </c>
       <c r="E4" t="n">
-        <v>2.271</v>
+        <v>43.541</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001</v>
+        <v>0.017</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>16360</v>
+        <v>1233.333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0600100010151</t>
+          <t>0600200011320</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.791</v>
+        <v>9.680999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.026</v>
+        <v>0.067</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.029</v>
       </c>
       <c r="E5" t="n">
-        <v>20.259</v>
+        <v>52.288</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.022</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3978.571</v>
+        <v>1369.369</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0600100010166</t>
+          <t>0600200011373</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.55</v>
+        <v>1.891</v>
       </c>
       <c r="C6" t="n">
-        <v>0.023</v>
+        <v>0.013</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="E6" t="n">
-        <v>18.672</v>
+        <v>10.478</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3568.293</v>
+        <v>2590.909</v>
       </c>
     </row>
   </sheetData>

--- a/data/06_colima/test.xlsx
+++ b/data/06_colima/test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/06_colima/test.xlsx
+++ b/data/06_colima/test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
